--- a/testdangnhap.xlsx
+++ b/testdangnhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22CCAA9-935D-48B6-9172-22873CB3663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D27F2E-BEF8-40EE-B2DC-D543176DAEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6F31625C-65AF-46F3-AEB9-24F501E9BFFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tendangnhap</t>
   </si>
@@ -42,10 +42,10 @@
     <t>matkhau</t>
   </si>
   <si>
-    <t>hung</t>
+    <t>0387335906</t>
   </si>
   <si>
-    <t>hun</t>
+    <t>beodeptrai1</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED29E5C-45BE-42FD-84BB-A977DF74FC54}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,27 +420,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
